--- a/Pv sWGA primer design_Human Only, 1-12-17.xlsx
+++ b/Pv sWGA primer design_Human Only, 1-12-17.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="24080" yWindow="460" windowWidth="25980" windowHeight="19400" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="24080" yWindow="460" windowWidth="25980" windowHeight="19400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Pv primer order" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="198">
   <si>
     <t>- Foreground: Sal1 without AAKM contigs (non-chromosomal scaffolding of unclear significance)</t>
   </si>
@@ -557,6 +557,78 @@
   </si>
   <si>
     <t>(swga_env) [12:16]nfb:/proj/meshnick/users/NickB/Projects/arXives/sWGA_Pv/Run0.1$ swga export sets --limit 10 --order_by score</t>
+  </si>
+  <si>
+    <t>Order primer sets 10 and 13 which had no overlaps</t>
+  </si>
+  <si>
+    <t>Order primer sets 1 and 4 had no overlaps</t>
+  </si>
+  <si>
+    <t>All together, there were 9 duplicates</t>
+  </si>
+  <si>
+    <t>Primers to Order</t>
+  </si>
+  <si>
+    <t>Red primers are unique from order Pv_HuPf Primer sets</t>
+  </si>
+  <si>
+    <t>Primer Name</t>
+  </si>
+  <si>
+    <t>Pf_Hu_P1</t>
+  </si>
+  <si>
+    <t>Pf_Hu_P2</t>
+  </si>
+  <si>
+    <t>Pf_Hu_P3</t>
+  </si>
+  <si>
+    <t>Pf_Hu_P4</t>
+  </si>
+  <si>
+    <t>Pf_Hu_P5</t>
+  </si>
+  <si>
+    <t>Pf_Hu_P6</t>
+  </si>
+  <si>
+    <t>Pf_Hu_P7</t>
+  </si>
+  <si>
+    <t>Pf_Hu_P8</t>
+  </si>
+  <si>
+    <t>Pf_Hu_P9</t>
+  </si>
+  <si>
+    <t>Pf_Hu_P10</t>
+  </si>
+  <si>
+    <t>Pf_Hu_P11</t>
+  </si>
+  <si>
+    <t>Pf_Hu_P12</t>
+  </si>
+  <si>
+    <t>Pf_Hu_P13</t>
+  </si>
+  <si>
+    <t>Pf_Hu_P14</t>
+  </si>
+  <si>
+    <t>Pf_Hu_P15</t>
+  </si>
+  <si>
+    <t>Pf_Hu_P16</t>
+  </si>
+  <si>
+    <t>Pf_Hu_P17</t>
+  </si>
+  <si>
+    <t>Pf_Hu_P18</t>
   </si>
 </sst>
 </file>
@@ -567,7 +639,7 @@
     <numFmt numFmtId="164" formatCode="0.0000000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -579,6 +651,13 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -628,7 +707,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -655,6 +734,11 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -932,12 +1016,182 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="D4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>189</v>
+      </c>
+      <c r="B11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>190</v>
+      </c>
+      <c r="B12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>191</v>
+      </c>
+      <c r="B13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>192</v>
+      </c>
+      <c r="B14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>193</v>
+      </c>
+      <c r="B15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>194</v>
+      </c>
+      <c r="B16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>195</v>
+      </c>
+      <c r="B17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>197</v>
+      </c>
+      <c r="B19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -946,12 +1200,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:U7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
     <col min="3" max="5" width="12.5" customWidth="1"/>
     <col min="6" max="6" width="14.6640625" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" style="3"/>
@@ -1011,7 +1266,7 @@
       </c>
     </row>
     <row r="2" spans="1:25" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="27" t="s">
         <v>58</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -1197,7 +1452,7 @@
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="26" t="s">
         <v>61</v>
       </c>
       <c r="B5" s="14" t="s">
@@ -1395,7 +1650,7 @@
       <c r="V7" s="15"/>
     </row>
     <row r="8" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="24" t="s">
         <v>64</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -1593,7 +1848,7 @@
       <c r="V10" s="7"/>
     </row>
     <row r="11" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="25" t="s">
         <v>67</v>
       </c>
       <c r="B11" s="10" t="s">

--- a/Pv sWGA primer design_Human Only, 1-12-17.xlsx
+++ b/Pv sWGA primer design_Human Only, 1-12-17.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/NFB/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nbrazeau/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="24080" yWindow="460" windowWidth="25980" windowHeight="19400" tabRatio="500"/>
+    <workbookView xWindow="8260" yWindow="460" windowWidth="16400" windowHeight="12980" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Pv primer order" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="198">
   <si>
     <t>- Foreground: Sal1 without AAKM contigs (non-chromosomal scaffolding of unclear significance)</t>
   </si>
@@ -639,7 +639,7 @@
     <numFmt numFmtId="164" formatCode="0.0000000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -658,6 +658,22 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -704,34 +720,40 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -740,7 +762,13 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1016,10 +1044,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:AB26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A7"/>
+      <selection activeCell="A26" sqref="A26:AB26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1167,7 +1195,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>195</v>
       </c>
@@ -1175,7 +1203,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" s="28" t="s">
         <v>196</v>
       </c>
@@ -1183,13 +1211,341 @@
         <v>166</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>197</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
       </c>
+    </row>
+    <row r="22" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+      <c r="A22" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="H22" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="I22" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J22" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="K22" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="L22" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="M22" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="N22" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A23" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" s="18">
+        <v>14858</v>
+      </c>
+      <c r="H23" s="18">
+        <v>8.5926511008180606E-2</v>
+      </c>
+      <c r="I23" s="18">
+        <v>5</v>
+      </c>
+      <c r="J23" s="18">
+        <v>37389.803120999997</v>
+      </c>
+      <c r="K23" s="18">
+        <v>74786</v>
+      </c>
+      <c r="L23" s="18">
+        <v>5621.6372670807395</v>
+      </c>
+      <c r="M23" s="18">
+        <v>7301.0103579995503</v>
+      </c>
+      <c r="N23" s="18">
+        <v>0.57150171326131605</v>
+      </c>
+      <c r="O23" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="P23" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q23" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="R23" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="S23" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="T23" s="19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A24" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="14">
+        <v>0</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" s="15">
+        <v>199643</v>
+      </c>
+      <c r="H24" s="15">
+        <v>1.88660974846445E-2</v>
+      </c>
+      <c r="I24" s="15">
+        <v>6</v>
+      </c>
+      <c r="J24" s="15">
+        <v>248063.80218299999</v>
+      </c>
+      <c r="K24" s="15">
+        <v>79383</v>
+      </c>
+      <c r="L24" s="15">
+        <v>8807.7423121837292</v>
+      </c>
+      <c r="M24" s="15">
+        <v>9549.3497168021404</v>
+      </c>
+      <c r="N24" s="15">
+        <v>0.53135022671158605</v>
+      </c>
+      <c r="O24" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="P24" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q24" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="R24" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="S24" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="T24" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="U24" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="V24" s="15"/>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A25" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G25" s="7">
+        <v>28618</v>
+      </c>
+      <c r="H25" s="7">
+        <v>8.79602402227425E-2</v>
+      </c>
+      <c r="I25" s="7">
+        <v>6</v>
+      </c>
+      <c r="J25" s="7">
+        <v>30120.223129999998</v>
+      </c>
+      <c r="K25" s="7">
+        <v>74786</v>
+      </c>
+      <c r="L25" s="7">
+        <v>4607.4302586031299</v>
+      </c>
+      <c r="M25" s="6">
+        <v>6071.4933589784096</v>
+      </c>
+      <c r="N25" s="7">
+        <v>0.57502380141954301</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q25" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="R25" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="S25" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="T25" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="U25" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="V25" s="6"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A26" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="10">
+        <v>0</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26" s="11">
+        <v>126557</v>
+      </c>
+      <c r="H26" s="11">
+        <v>2.4347362564722998E-2</v>
+      </c>
+      <c r="I26" s="11">
+        <v>10</v>
+      </c>
+      <c r="J26" s="11">
+        <v>128937.66963400001</v>
+      </c>
+      <c r="K26" s="11">
+        <v>62027</v>
+      </c>
+      <c r="L26" s="11">
+        <v>5880.2208939708898</v>
+      </c>
+      <c r="M26" s="12">
+        <v>6482.63967835931</v>
+      </c>
+      <c r="N26" s="11">
+        <v>0.53387317371839904</v>
+      </c>
+      <c r="O26" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="P26" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q26" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="R26" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="S26" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="T26" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="U26" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="V26" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="W26" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="X26" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="2"/>
+      <c r="AB26" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1201,7 +1557,7 @@
   <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A11" sqref="A11:AB11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
